--- a/2025-10-12/12_fixtures.xlsx
+++ b/2025-10-12/12_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croatia - Gibraltar: 19:45</t>
+          <t>Croatia ✓ - Gibraltar: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,11 +507,16 @@
           <t>77%</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,27 +527,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louisville City FC - Miami FC: 1:0</t>
+          <t>Bukovyna Chernivtsi ✓ - Podillya Khmelnytskyi: 2:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Louisville City FC</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -556,30 +566,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Netherlands - Finland: 17:00</t>
+          <t>Louisville City FC ✓ - Miami FC: 1:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.03</v>
+        <v>2.02</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Louisville City FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -590,30 +605,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scotland - Belarus: 17:00</t>
+          <t>Netherlands ✓ - Finland: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.3</v>
+        <v>3.03</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>72%</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -624,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Romania - Austria: 19:45</t>
+          <t>Scotland ✓ - Belarus: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.96</v>
+        <v>1.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -640,11 +660,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -658,30 +683,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zambia - Niger: 14:00</t>
+          <t>Romania - Austria X: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.57</v>
+        <v>1.96</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -692,15 +722,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Egypt - Guinea-Bissau: 20:00</t>
+          <t>Zambia X - Niger: 0:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -711,11 +741,16 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -726,27 +761,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CD Plaza Amador - CD Árabe Unido: 0:2</t>
+          <t>Egypt ✓ - Guinea-Bissau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.62</v>
+        <v>0.14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CD Plaza Amador</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -760,15 +800,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atlético Tembetary - Club Libertad Asunción: 2:1</t>
+          <t>CD Plaza Amador X - CD Árabe Unido: 0:2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Club Libertad Asunción</t>
+          <t>CD Plaza Amador</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -779,11 +819,16 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -794,27 +839,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Burkina Faso - Ethiopia: 20:00</t>
+          <t>Atlético Tembetary - Club Libertad Asunción X: 2:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Club Libertad Asunción</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -828,27 +878,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ghana - Comoros: 20:00</t>
+          <t>Burkina Faso ✓ - Ethiopia: 3:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -862,30 +917,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mali - Madagascar: 20:00</t>
+          <t>Ghana ✓ - Comoros: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -896,27 +956,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima - Yokohama FC: 2:1</t>
+          <t>Mali ✓ - Madagascar: 4:1</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.5</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -930,27 +995,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PSS Sleman - Kendal Tornado FC: 3:1</t>
+          <t>Sanfrecce Hiroshima ✓ - Yokohama FC: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>61%</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -964,15 +1034,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá - Club Aurora: 2:1</t>
+          <t>PSS Sleman ✓ - Kendal Tornado FC: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -983,11 +1053,16 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -998,30 +1073,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam - Fard Alborz: 16:30</t>
+          <t>Club Deportivo Guabirá ✓ - Club Aurora: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam</t>
+          <t>Club Deportivo Guabirá</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1032,15 +1112,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Antigua GFC - Deportivo Achuapa: 02:00</t>
+          <t>Pars Jonoubi Jam  - Fard Alborz: 0:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>Pars Jonoubi Jam</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1048,11 +1128,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1066,19 +1146,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CA Estudiantes - Club Deportivo Maipú: 21:10</t>
+          <t>Antigua GFC  - Deportivo Achuapa: 02:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1086,10 +1166,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1100,23 +1180,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons - Ansan Greeners: 0:1</t>
+          <t>CA Estudiantes ✓ - Club Deportivo Maipú: 1:0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.61</v>
+        <v>0.88</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>55%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1134,15 +1219,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CSD Municipal - Cobán Imperial: 00:00</t>
+          <t>Jeonnam Dragons X - Ansan Greeners: 0:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CSD Municipal</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1153,32 +1238,71 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSD Municipal  - Cobán Imperial: 00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CSD Municipal</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="K22">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="K23">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L22">
-        <f>(K22/K24)*100</f>
+      <c r="L23">
+        <f>(K23/K25)*100</f>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="K23">
+    <row r="24">
+      <c r="K24">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="K24">
-        <f>K22+K23</f>
+    <row r="25">
+      <c r="K25">
+        <f>K23+K24</f>
         <v/>
       </c>
     </row>
